--- a/biology/Médecine/Jean-Vital_de_Monléon/Jean-Vital_de_Monléon.xlsx
+++ b/biology/Médecine/Jean-Vital_de_Monléon/Jean-Vital_de_Monléon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Vital_de_Monl%C3%A9on</t>
+          <t>Jean-Vital_de_Monléon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Vital de Monléon est un pédiatre et un écrivain spécialiste de l'adoption, membre du Conseil national de la protection de l'enfance (CNPE) et ancien membre du Conseil supérieur de l'adoption.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Vital_de_Monl%C3%A9on</t>
+          <t>Jean-Vital_de_Monléon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Vital de Monléon est né le 2 septembre 1965. Il est marié et père de 5 enfants. 
-Il est pédiatre au CHU de Dijon depuis 1998, lieu où il a fondé en juin 1999, la consultation d'adoption outre-mer[1],[2]. Première consultation de France pour l'accueil et l'accompagnement pour les enfants adoptés, cette structure permet le suivi de près de 3 000 enfants, et propose aussi un accompagnement avant l'adoption[3].
-Membre du Conseil supérieur de l'adoption[4] de 2003 à 2015, en tant qu'expert associé, puis comme membre de plein droit, il définit, comme but à ses principales actions, la nécessité d'aider enfants adoptés et familles adoptives à trouver leur place dans la société.
+Il est pédiatre au CHU de Dijon depuis 1998, lieu où il a fondé en juin 1999, la consultation d'adoption outre-mer,. Première consultation de France pour l'accueil et l'accompagnement pour les enfants adoptés, cette structure permet le suivi de près de 3 000 enfants, et propose aussi un accompagnement avant l'adoption.
+Membre du Conseil supérieur de l'adoption de 2003 à 2015, en tant qu'expert associé, puis comme membre de plein droit, il définit, comme but à ses principales actions, la nécessité d'aider enfants adoptés et familles adoptives à trouver leur place dans la société.
 Il fonde en 2015, à l'université de Bourgogne un diplôme universitaire : L'enfant adopté.
 À partir de 2016, il est nommé membre du nouveau Conseil national de protection de l'enfance (CNPE), dans le collège des personnalités qualifiées. En 2020, il est nommé animateur de la Commission Adoption du CNPE.[réf. souhaitée]
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Vital_de_Monl%C3%A9on</t>
+          <t>Jean-Vital_de_Monléon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Vision de la famille et de l'adoption</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, il participe à la Manif pour tous[5]. Il considère que l'idéal pour un enfant est de vivre avec un père et une mère[5]. Il affirme que certains groupes de population constituent un "facteur de risque" dans l'adoption d'enfants, comme les célibataires[6] et les adoptants d’âge avancé[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, il participe à la Manif pour tous. Il considère que l'idéal pour un enfant est de vivre avec un père et une mère. Il affirme que certains groupes de population constituent un "facteur de risque" dans l'adoption d'enfants, comme les célibataires et les adoptants d’âge avancé.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Vital_de_Monl%C3%A9on</t>
+          <t>Jean-Vital_de_Monléon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les Deux Mamans de Petirou (éditions Gautier-Languereau, 2001) illustré par Rebecca Dautremer[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Deux Mamans de Petirou (éditions Gautier-Languereau, 2001) illustré par Rebecca Dautremer.
 Naître là-bas, grandir ici (éditions Belin 2003).
 Pédiatrie (éditions Masson, 1999) avec Frédéric Huet et Jean-Paul Belon.
 Jean-Vital de Monléon, « L’adoption en Polynésie française et les métropolitains : de la stupéfaction à la participation », dans Isabelle Leblic, De l’adoption : Des pratiques de filiation différentes, Clermont-Ferrand, Presses Universitaires Blaise Pascal, coll. « Anthropologie », 2004 (ISBN 978-2-84516-231-0), p. 49-79
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean-Vital_de_Monl%C3%A9on</t>
+          <t>Jean-Vital_de_Monléon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est nommé chevalier de la Légion d'honneur (Décret du 14 juillet 2022)[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé chevalier de la Légion d'honneur (Décret du 14 juillet 2022).
 </t>
         </is>
       </c>
